--- a/SchedulingData/dynamic15/pso/scheduling2_5.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_5.xlsx
@@ -462,78 +462,78 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>221</v>
+        <v>205.4</v>
       </c>
       <c r="D2" t="n">
-        <v>293.78</v>
+        <v>265.1</v>
       </c>
       <c r="E2" t="n">
-        <v>12.772</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>293.78</v>
+        <v>204.96</v>
       </c>
       <c r="D3" t="n">
-        <v>368.76</v>
+        <v>282.26</v>
       </c>
       <c r="E3" t="n">
-        <v>8.404</v>
+        <v>11.924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>210.34</v>
+        <v>204.84</v>
       </c>
       <c r="D4" t="n">
-        <v>261.2</v>
+        <v>261.56</v>
       </c>
       <c r="E4" t="n">
-        <v>14.02</v>
+        <v>14.364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>368.76</v>
+        <v>211.56</v>
       </c>
       <c r="D5" t="n">
-        <v>426.88</v>
+        <v>281.08</v>
       </c>
       <c r="E5" t="n">
-        <v>5.192</v>
+        <v>14.572</v>
       </c>
     </row>
     <row r="6">
@@ -542,93 +542,93 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>201.84</v>
+        <v>263.66</v>
       </c>
       <c r="D6" t="n">
-        <v>248.48</v>
+        <v>330.86</v>
       </c>
       <c r="E6" t="n">
-        <v>14.692</v>
+        <v>9.084</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>426.88</v>
+        <v>281.08</v>
       </c>
       <c r="D7" t="n">
-        <v>477.84</v>
+        <v>322.72</v>
       </c>
       <c r="E7" t="n">
-        <v>1.716</v>
+        <v>12.028</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>477.84</v>
+        <v>265.1</v>
       </c>
       <c r="D8" t="n">
-        <v>571.01</v>
+        <v>315.28</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>10.272</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>253.7</v>
+        <v>282.26</v>
       </c>
       <c r="D9" t="n">
-        <v>301.4</v>
+        <v>326.58</v>
       </c>
       <c r="E9" t="n">
-        <v>12.48</v>
+        <v>8.132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>201.76</v>
+        <v>326.58</v>
       </c>
       <c r="D10" t="n">
-        <v>265.26</v>
+        <v>406.78</v>
       </c>
       <c r="E10" t="n">
-        <v>13.624</v>
+        <v>4.692</v>
       </c>
     </row>
     <row r="11">
@@ -637,131 +637,131 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>248.48</v>
+        <v>330.86</v>
       </c>
       <c r="D11" t="n">
-        <v>347.5</v>
+        <v>407.94</v>
       </c>
       <c r="E11" t="n">
-        <v>10.38</v>
+        <v>4.996</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>214.84</v>
+        <v>315.28</v>
       </c>
       <c r="D12" t="n">
-        <v>268.26</v>
+        <v>384.12</v>
       </c>
       <c r="E12" t="n">
-        <v>12.324</v>
+        <v>6.008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>268.26</v>
+        <v>407.94</v>
       </c>
       <c r="D13" t="n">
-        <v>314.22</v>
+        <v>489.4</v>
       </c>
       <c r="E13" t="n">
-        <v>9.348000000000001</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>265.26</v>
+        <v>489.4</v>
       </c>
       <c r="D14" t="n">
-        <v>323.86</v>
+        <v>573.28</v>
       </c>
       <c r="E14" t="n">
-        <v>8.404</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>301.4</v>
+        <v>384.12</v>
       </c>
       <c r="D15" t="n">
-        <v>341.24</v>
+        <v>417.02</v>
       </c>
       <c r="E15" t="n">
-        <v>9.135999999999999</v>
+        <v>3.848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>347.5</v>
+        <v>261.56</v>
       </c>
       <c r="D16" t="n">
-        <v>403</v>
+        <v>312.62</v>
       </c>
       <c r="E16" t="n">
-        <v>6.96</v>
+        <v>10.388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>341.24</v>
+        <v>312.62</v>
       </c>
       <c r="D17" t="n">
-        <v>407.06</v>
+        <v>366.58</v>
       </c>
       <c r="E17" t="n">
-        <v>5.664</v>
+        <v>7.112</v>
       </c>
     </row>
     <row r="18">
@@ -770,150 +770,150 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>261.2</v>
+        <v>406.78</v>
       </c>
       <c r="D18" t="n">
-        <v>316.9</v>
+        <v>448.76</v>
       </c>
       <c r="E18" t="n">
-        <v>10.58</v>
+        <v>1.624</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>314.22</v>
+        <v>448.76</v>
       </c>
       <c r="D19" t="n">
-        <v>375.92</v>
+        <v>512.51</v>
       </c>
       <c r="E19" t="n">
-        <v>6.268</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>323.86</v>
+        <v>210.42</v>
       </c>
       <c r="D20" t="n">
-        <v>366.66</v>
+        <v>251.54</v>
       </c>
       <c r="E20" t="n">
-        <v>6.244</v>
+        <v>13.576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>316.9</v>
+        <v>417.02</v>
       </c>
       <c r="D21" t="n">
-        <v>373.04</v>
+        <v>480.62</v>
       </c>
       <c r="E21" t="n">
-        <v>7.076</v>
+        <v>1.568</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>373.04</v>
+        <v>480.62</v>
       </c>
       <c r="D22" t="n">
-        <v>428.78</v>
+        <v>549.38</v>
       </c>
       <c r="E22" t="n">
-        <v>4.112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>375.92</v>
+        <v>322.72</v>
       </c>
       <c r="D23" t="n">
-        <v>444.78</v>
+        <v>366.82</v>
       </c>
       <c r="E23" t="n">
-        <v>2.992</v>
+        <v>8.747999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>428.78</v>
+        <v>251.54</v>
       </c>
       <c r="D24" t="n">
-        <v>489.84</v>
+        <v>324.84</v>
       </c>
       <c r="E24" t="n">
-        <v>0.636</v>
+        <v>8.356</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>489.84</v>
+        <v>324.84</v>
       </c>
       <c r="D25" t="n">
-        <v>594.97</v>
+        <v>369.68</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>5.012</v>
       </c>
     </row>
     <row r="26">
@@ -922,36 +922,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>407.06</v>
+        <v>366.82</v>
       </c>
       <c r="D26" t="n">
-        <v>457.36</v>
+        <v>451.22</v>
       </c>
       <c r="E26" t="n">
-        <v>1.764</v>
+        <v>3.888</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>457.36</v>
+        <v>366.58</v>
       </c>
       <c r="D27" t="n">
-        <v>530.63</v>
+        <v>430.68</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>1.832</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>571.01</v>
+        <v>430.68</v>
       </c>
       <c r="D28" t="n">
-        <v>647.9299999999999</v>
+        <v>513.62</v>
       </c>
       <c r="E28" t="n">
-        <v>25.968</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>444.78</v>
+        <v>513.62</v>
       </c>
       <c r="D29" t="n">
-        <v>520.5</v>
+        <v>580.26</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>26.496</v>
       </c>
     </row>
     <row r="30">
@@ -998,17 +998,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>520.5</v>
+        <v>369.68</v>
       </c>
       <c r="D30" t="n">
-        <v>598.2</v>
+        <v>417.8</v>
       </c>
       <c r="E30" t="n">
-        <v>26.36</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="31">
@@ -1017,112 +1017,112 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>598.2</v>
+        <v>417.8</v>
       </c>
       <c r="D31" t="n">
-        <v>652.8</v>
+        <v>481.12</v>
       </c>
       <c r="E31" t="n">
-        <v>23.5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>366.66</v>
+        <v>481.12</v>
       </c>
       <c r="D32" t="n">
-        <v>426.46</v>
+        <v>547.36</v>
       </c>
       <c r="E32" t="n">
-        <v>2.864</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>652.8</v>
+        <v>573.28</v>
       </c>
       <c r="D33" t="n">
-        <v>687.42</v>
+        <v>644.22</v>
       </c>
       <c r="E33" t="n">
-        <v>21.168</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>647.9299999999999</v>
+        <v>512.51</v>
       </c>
       <c r="D34" t="n">
-        <v>724.03</v>
+        <v>586.03</v>
       </c>
       <c r="E34" t="n">
-        <v>20.988</v>
+        <v>26.788</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>426.46</v>
+        <v>644.22</v>
       </c>
       <c r="D35" t="n">
-        <v>465.2</v>
+        <v>707.22</v>
       </c>
       <c r="E35" t="n">
-        <v>0.62</v>
+        <v>24.316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>465.2</v>
+        <v>707.22</v>
       </c>
       <c r="D36" t="n">
-        <v>540.76</v>
+        <v>770.3200000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>21.136</v>
       </c>
     </row>
     <row r="37">
@@ -1131,174 +1131,174 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>540.76</v>
+        <v>549.38</v>
       </c>
       <c r="D37" t="n">
-        <v>607</v>
+        <v>622.28</v>
       </c>
       <c r="E37" t="n">
-        <v>27.036</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>530.63</v>
+        <v>580.26</v>
       </c>
       <c r="D38" t="n">
-        <v>603.85</v>
+        <v>624.6799999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>26.828</v>
+        <v>24.164</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>607</v>
+        <v>586.03</v>
       </c>
       <c r="D39" t="n">
-        <v>656.78</v>
+        <v>643.27</v>
       </c>
       <c r="E39" t="n">
-        <v>23.188</v>
+        <v>23.204</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>403</v>
+        <v>547.36</v>
       </c>
       <c r="D40" t="n">
-        <v>477.9</v>
+        <v>618.16</v>
       </c>
       <c r="E40" t="n">
-        <v>2.1</v>
+        <v>23.076</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>477.9</v>
+        <v>643.27</v>
       </c>
       <c r="D41" t="n">
-        <v>555.6</v>
+        <v>696.71</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>20.96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>555.6</v>
+        <v>624.6799999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>657.9</v>
+        <v>682.4400000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>24.9</v>
+        <v>21.028</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>594.97</v>
+        <v>618.16</v>
       </c>
       <c r="D43" t="n">
-        <v>635.1900000000001</v>
+        <v>664.84</v>
       </c>
       <c r="E43" t="n">
-        <v>27.668</v>
+        <v>19.548</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>657.9</v>
+        <v>664.84</v>
       </c>
       <c r="D44" t="n">
-        <v>736.2</v>
+        <v>740.7</v>
       </c>
       <c r="E44" t="n">
-        <v>20.7</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>635.1900000000001</v>
+        <v>622.28</v>
       </c>
       <c r="D45" t="n">
-        <v>688.21</v>
+        <v>696.3</v>
       </c>
       <c r="E45" t="n">
-        <v>24.496</v>
+        <v>23.528</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1306,51 +1306,51 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>687.42</v>
+        <v>451.22</v>
       </c>
       <c r="D46" t="n">
-        <v>737.3200000000001</v>
+        <v>515.8200000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>18.808</v>
+        <v>1.528</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>688.21</v>
+        <v>515.8200000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>741.41</v>
+        <v>604.26</v>
       </c>
       <c r="E47" t="n">
-        <v>21.316</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>656.78</v>
+        <v>604.26</v>
       </c>
       <c r="D48" t="n">
-        <v>699.58</v>
+        <v>657.66</v>
       </c>
       <c r="E48" t="n">
-        <v>21.028</v>
+        <v>26.36</v>
       </c>
     </row>
   </sheetData>
